--- a/docs/UI_STORY_MATRIX.xlsx
+++ b/docs/UI_STORY_MATRIX.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\worksphere_bkt\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB1CD852-BA70-45A9-9D3B-AF42683C3E8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C721E2C-62A2-4CB4-A939-A1F5F462E615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0. Tổng quan" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1269" uniqueCount="339">
   <si>
     <t>MA TRẬN UI - USER STORY</t>
   </si>
@@ -1037,13 +1037,19 @@
   </si>
   <si>
     <t>ORG</t>
+  </si>
+  <si>
+    <t>trạng thái</t>
+  </si>
+  <si>
+    <t>ngày làm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1125,6 +1131,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="11">
@@ -1240,7 +1253,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1308,11 +1321,20 @@
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="9">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom"/>
     </dxf>
@@ -1366,15 +1388,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A2:G63" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A2:I63" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Tên giao diện"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Route/URL"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EMP" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="MNG" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="CEO" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="SYS" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="ORG" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EMP" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="MNG" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="CEO" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="SYS" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="ORG" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{BFD524EE-BC82-4E49-9A3A-DEEC8E84F1D2}" name="trạng thái" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{1EA2A0AA-94F4-42C9-BEC5-FD31EE79C82F}" name="ngày làm" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1827,7 +1851,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4709,8 +4733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AW64"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="P19" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="P4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="T23" sqref="T23"/>
@@ -10448,8 +10472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Q64"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C52" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C55" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="N62" sqref="N62"/>
@@ -12023,7 +12047,7 @@
   <dimension ref="A1:S64"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C43" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="N38" sqref="N38"/>
@@ -13749,10 +13773,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:G63"/>
+  <dimension ref="A1:I63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="L37" sqref="L37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13762,7 +13786,7 @@
     <col min="3" max="7" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="28" t="s">
         <v>331</v>
       </c>
@@ -13773,7 +13797,7 @@
       <c r="F1" s="23"/>
       <c r="G1" s="23"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>31</v>
       </c>
@@ -13795,8 +13819,14 @@
       <c r="G2" s="14" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2" s="29" t="s">
+        <v>337</v>
+      </c>
+      <c r="I2" s="29" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>75</v>
       </c>
@@ -13818,8 +13848,10 @@
       <c r="G3" s="15" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>78</v>
       </c>
@@ -13835,8 +13867,10 @@
       <c r="G4" s="15" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>80</v>
       </c>
@@ -13858,8 +13892,10 @@
       <c r="G5" s="15" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>82</v>
       </c>
@@ -13881,8 +13917,10 @@
       <c r="G6" s="15" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>84</v>
       </c>
@@ -13904,8 +13942,10 @@
       <c r="G7" s="15" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>86</v>
       </c>
@@ -13923,8 +13963,10 @@
       </c>
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>88</v>
       </c>
@@ -13938,8 +13980,10 @@
       </c>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>90</v>
       </c>
@@ -13955,8 +13999,10 @@
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>92</v>
       </c>
@@ -13972,8 +14018,10 @@
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>94</v>
       </c>
@@ -13987,8 +14035,10 @@
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>96</v>
       </c>
@@ -14006,8 +14056,10 @@
       </c>
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>98</v>
       </c>
@@ -14023,8 +14075,10 @@
       </c>
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>100</v>
       </c>
@@ -14038,8 +14092,10 @@
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>102</v>
       </c>
@@ -14055,8 +14111,10 @@
       </c>
       <c r="F16" s="13"/>
       <c r="G16" s="13"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>104</v>
       </c>
@@ -14072,8 +14130,10 @@
       </c>
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>106</v>
       </c>
@@ -14087,8 +14147,10 @@
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>108</v>
       </c>
@@ -14102,8 +14164,10 @@
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>110</v>
       </c>
@@ -14117,8 +14181,10 @@
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
       <c r="G20" s="13"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>112</v>
       </c>
@@ -14132,8 +14198,10 @@
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>114</v>
       </c>
@@ -14147,8 +14215,10 @@
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>116</v>
       </c>
@@ -14162,8 +14232,10 @@
       <c r="E23" s="13"/>
       <c r="F23" s="13"/>
       <c r="G23" s="13"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>118</v>
       </c>
@@ -14179,8 +14251,10 @@
       </c>
       <c r="F24" s="13"/>
       <c r="G24" s="13"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>120</v>
       </c>
@@ -14196,8 +14270,10 @@
       </c>
       <c r="F25" s="13"/>
       <c r="G25" s="13"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>122</v>
       </c>
@@ -14211,8 +14287,10 @@
       <c r="E26" s="13"/>
       <c r="F26" s="13"/>
       <c r="G26" s="13"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>124</v>
       </c>
@@ -14226,8 +14304,10 @@
       <c r="E27" s="13"/>
       <c r="F27" s="13"/>
       <c r="G27" s="13"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>126</v>
       </c>
@@ -14241,8 +14321,10 @@
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
       <c r="G28" s="13"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>128</v>
       </c>
@@ -14256,8 +14338,10 @@
       <c r="E29" s="13"/>
       <c r="F29" s="13"/>
       <c r="G29" s="13"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>130</v>
       </c>
@@ -14275,8 +14359,10 @@
       </c>
       <c r="F30" s="13"/>
       <c r="G30" s="13"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>132</v>
       </c>
@@ -14290,8 +14376,10 @@
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>
       <c r="G31" s="13"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>134</v>
       </c>
@@ -14307,8 +14395,10 @@
       </c>
       <c r="F32" s="13"/>
       <c r="G32" s="13"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>136</v>
       </c>
@@ -14324,8 +14414,10 @@
       </c>
       <c r="F33" s="13"/>
       <c r="G33" s="13"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>138</v>
       </c>
@@ -14341,8 +14433,10 @@
       </c>
       <c r="F34" s="13"/>
       <c r="G34" s="13"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>140</v>
       </c>
@@ -14360,8 +14454,10 @@
       <c r="G35" s="15" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>142</v>
       </c>
@@ -14379,8 +14475,10 @@
       <c r="G36" s="15" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>144</v>
       </c>
@@ -14396,8 +14494,10 @@
       <c r="G37" s="15" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>146</v>
       </c>
@@ -14415,8 +14515,10 @@
       <c r="G38" s="15" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>148</v>
       </c>
@@ -14432,8 +14534,10 @@
       <c r="G39" s="15" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>150</v>
       </c>
@@ -14449,8 +14553,10 @@
       <c r="E40" s="13"/>
       <c r="F40" s="13"/>
       <c r="G40" s="13"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H40" s="13"/>
+      <c r="I40" s="13"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>152</v>
       </c>
@@ -14468,8 +14574,10 @@
       </c>
       <c r="F41" s="13"/>
       <c r="G41" s="13"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>154</v>
       </c>
@@ -14487,8 +14595,10 @@
       </c>
       <c r="F42" s="13"/>
       <c r="G42" s="13"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H42" s="13"/>
+      <c r="I42" s="13"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>156</v>
       </c>
@@ -14506,8 +14616,10 @@
       </c>
       <c r="F43" s="13"/>
       <c r="G43" s="13"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H43" s="13"/>
+      <c r="I43" s="13"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>158</v>
       </c>
@@ -14527,8 +14639,10 @@
       <c r="G44" s="15" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H44" s="13"/>
+      <c r="I44" s="13"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>160</v>
       </c>
@@ -14550,8 +14664,10 @@
       <c r="G45" s="15" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H45" s="13"/>
+      <c r="I45" s="13"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>162</v>
       </c>
@@ -14565,8 +14681,10 @@
       <c r="G46" s="15" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H46" s="13"/>
+      <c r="I46" s="13"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>164</v>
       </c>
@@ -14580,8 +14698,10 @@
       <c r="G47" s="15" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H47" s="13"/>
+      <c r="I47" s="13"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>166</v>
       </c>
@@ -14595,8 +14715,10 @@
       <c r="G48" s="15" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H48" s="13"/>
+      <c r="I48" s="13"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>168</v>
       </c>
@@ -14610,8 +14732,10 @@
       <c r="G49" s="15" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H49" s="13"/>
+      <c r="I49" s="13"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>170</v>
       </c>
@@ -14627,8 +14751,10 @@
       <c r="G50" s="15" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H50" s="13"/>
+      <c r="I50" s="13"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>172</v>
       </c>
@@ -14644,8 +14770,10 @@
       <c r="G51" s="15" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H51" s="13"/>
+      <c r="I51" s="13"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>174</v>
       </c>
@@ -14659,8 +14787,10 @@
         <v>77</v>
       </c>
       <c r="G52" s="13"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H52" s="13"/>
+      <c r="I52" s="13"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>176</v>
       </c>
@@ -14674,8 +14804,10 @@
         <v>77</v>
       </c>
       <c r="G53" s="13"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H53" s="13"/>
+      <c r="I53" s="13"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>178</v>
       </c>
@@ -14689,8 +14821,10 @@
         <v>77</v>
       </c>
       <c r="G54" s="13"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H54" s="13"/>
+      <c r="I54" s="13"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>180</v>
       </c>
@@ -14704,8 +14838,10 @@
         <v>77</v>
       </c>
       <c r="G55" s="13"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H55" s="13"/>
+      <c r="I55" s="13"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>182</v>
       </c>
@@ -14719,8 +14855,10 @@
       <c r="G56" s="15" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H56" s="13"/>
+      <c r="I56" s="13"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>184</v>
       </c>
@@ -14734,8 +14872,10 @@
       <c r="G57" s="15" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H57" s="13"/>
+      <c r="I57" s="13"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>186</v>
       </c>
@@ -14751,8 +14891,10 @@
       <c r="G58" s="15" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H58" s="13"/>
+      <c r="I58" s="13"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>188</v>
       </c>
@@ -14768,8 +14910,10 @@
       <c r="G59" s="15" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H59" s="13"/>
+      <c r="I59" s="13"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>190</v>
       </c>
@@ -14783,8 +14927,10 @@
         <v>77</v>
       </c>
       <c r="G60" s="13"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H60" s="13"/>
+      <c r="I60" s="13"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>192</v>
       </c>
@@ -14800,8 +14946,10 @@
       <c r="G61" s="15" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H61" s="13"/>
+      <c r="I61" s="13"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>194</v>
       </c>
@@ -14815,8 +14963,10 @@
         <v>77</v>
       </c>
       <c r="G62" s="13"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H62" s="13"/>
+      <c r="I62" s="13"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>196</v>
       </c>
@@ -14830,6 +14980,8 @@
         <v>77</v>
       </c>
       <c r="G63" s="13"/>
+      <c r="H63" s="13"/>
+      <c r="I63" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
